--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Status</x:t>
   </x:si>
@@ -50,13 +50,7 @@
     <x:t xml:space="preserve">7 </x:t>
   </x:si>
   <x:si>
-    <x:t>Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannot find the UI element corresponding to this selector: &lt;wnd aaname='5' cls='Button' /&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">14 </x:t>
+    <x:t xml:space="preserve">9 </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">11 </x:t>
@@ -69,9 +63,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">17 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>The UiElement is no longer valid</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,7 +451,7 @@
       <x:selection activeCell="E11" sqref="E11 E11:E11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="23.890312" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultColWidth="24.600937" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="49.726562" style="3" bestFit="1" customWidth="1"/>
@@ -530,10 +521,7 @@
     </x:row>
     <x:row r="5" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A5" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>4</x:v>
@@ -542,7 +530,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -556,7 +544,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -570,7 +558,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -584,7 +572,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -598,21 +586,21 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A10" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="3" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomy\git\TomyFramewrok\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A569BF8B-F641-4400-B7C3-293B044C9DFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAF74153-5497-45D9-8DE9-DB6EFF695ADA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
-    <x:t>Status</x:t>
+    <x:t>TransactionStatus</x:t>
   </x:si>
   <x:si>
     <x:t>ExceptionMessage</x:t>
@@ -53,6 +53,12 @@
     <x:t xml:space="preserve">9 </x:t>
   </x:si>
   <x:si>
+    <x:t>Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The UiElement is no longer valid</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">11 </x:t>
   </x:si>
   <x:si>
@@ -72,7 +78,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -83,6 +89,12 @@
       <x:name val="宋体"/>
       <x:family val="3"/>
       <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -117,10 +129,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -448,172 +461,178 @@
   <x:dimension ref="A1:AA958"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E11" sqref="E11 E11:E11"/>
+      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:B12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="24.600937" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultColWidth="27.475313" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.90625" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="49.726562" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="4" width="6.90625" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="6.363281" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="27" width="8.726562" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="16.542969" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="49.726562" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="4" width="6.90625" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="6.363281" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="27" width="8.726562" style="4" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:27" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="4" t="s">
+    <x:row r="1" spans="1:27" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
+      <x:c r="B1" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="C1" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="4" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="4" t="s">
+      <x:c r="E1" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="n">
+      <x:c r="C2" s="4" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="n">
+      <x:c r="D2" s="4" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="E2" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="n">
+      <x:c r="C3" s="4" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="n">
+      <x:c r="D3" s="4" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="3" t="s">
+      <x:c r="E3" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="n">
+      <x:c r="C4" s="4" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D4" s="3" t="n">
+      <x:c r="D4" s="4" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E4" s="3" t="s">
+      <x:c r="E4" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="3" t="n">
+      <x:c r="C5" s="4" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="n">
+      <x:c r="D5" s="4" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E5" s="3" t="s">
+      <x:c r="E5" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C6" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="n">
+      <x:c r="D6" s="4" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>10</x:v>
+      <x:c r="E6" s="4" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A7" s="3" t="s">
+      <x:c r="A7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="n">
+      <x:c r="C7" s="4" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="n">
+      <x:c r="D7" s="4" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
+      <x:c r="E7" s="4" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C8" s="3" t="n">
+      <x:c r="C8" s="4" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="3" t="n">
+      <x:c r="D8" s="4" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>12</x:v>
+      <x:c r="E8" s="4" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="n">
+      <x:c r="A9" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D9" s="3" t="n">
+      <x:c r="D9" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>13</x:v>
+      <x:c r="E9" s="4" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A10" s="3" t="s">
+      <x:c r="A10" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="n">
+      <x:c r="C10" s="4" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D10" s="3" t="n">
+      <x:c r="D10" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E10" s="3" t="s">
+      <x:c r="E10" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A11" s="3" t="s">
+      <x:c r="A11" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C11" s="3" t="n">
+      <x:c r="C11" s="4" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D11" s="3" t="n">
+      <x:c r="D11" s="4" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E11" s="3" t="s">
+      <x:c r="E11" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomy\git\TomyFramewrok\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31A7AC17-C5FC-414F-9360-69D1F2876820}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{211ED87F-1D0E-4AAC-B4BD-E0BA653589E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Status</t>
-  </si>
   <si>
     <t>ExceptionMessage</t>
   </si>
@@ -55,6 +52,10 @@
       </rPr>
       <t>alue2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransactionStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,29 +429,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X945"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
